--- a/21049　本岡　残補講計画.xlsx
+++ b/21049　本岡　残補講計画.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>補講計画</t>
     <rPh sb="0" eb="4">
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1450,9 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="D11" s="26"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1525,7 +1523,9 @@
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1533,7 +1533,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
